--- a/data/output/FV2310_FV2304/INVOIC/31011.xlsx
+++ b/data/output/FV2310_FV2304/INVOIC/31011.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3878" uniqueCount="325">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3899" uniqueCount="325">
+  <si>
+    <t>Segmentname_FV2304</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2304</t>
+  </si>
+  <si>
+    <t>Segment_FV2304</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2304</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2304</t>
+  </si>
+  <si>
+    <t>Code_FV2304</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2304</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2304</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2310</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2310</t>
+  </si>
+  <si>
+    <t>Segment_FV2310</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2310</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2310</t>
+  </si>
+  <si>
+    <t>Code_FV2310</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2310</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2310</t>
   </si>
   <si>
     <t>Nachrichtenanfang</t>
@@ -1123,6 +1123,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U196" totalsRowShown="0">
+  <autoFilter ref="A1:U196"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2304"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2304"/>
+    <tableColumn id="3" name="Segment_FV2304"/>
+    <tableColumn id="4" name="Datenelement_FV2304"/>
+    <tableColumn id="5" name="Segment ID_FV2304"/>
+    <tableColumn id="6" name="Code_FV2304"/>
+    <tableColumn id="7" name="Qualifier_FV2304"/>
+    <tableColumn id="8" name="Beschreibung_FV2304"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2304"/>
+    <tableColumn id="10" name="Bedingung_FV2304"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2310"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2310"/>
+    <tableColumn id="14" name="Segment_FV2310"/>
+    <tableColumn id="15" name="Datenelement_FV2310"/>
+    <tableColumn id="16" name="Segment ID_FV2310"/>
+    <tableColumn id="17" name="Code_FV2310"/>
+    <tableColumn id="18" name="Qualifier_FV2310"/>
+    <tableColumn id="19" name="Beschreibung_FV2310"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2310"/>
+    <tableColumn id="21" name="Bedingung_FV2310"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1412,7 +1442,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U196"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -10145,5 +10178,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2310_FV2304/INVOIC/31011.xlsx
+++ b/data/output/FV2310_FV2304/INVOIC/31011.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4675" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4477" uniqueCount="506">
   <si>
     <t>#</t>
   </si>
@@ -5369,44 +5369,42 @@
       <c r="V69" s="9"/>
     </row>
     <row r="70" spans="1:22">
-      <c r="A70" s="5" t="s">
+      <c r="A70" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B70" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="C70" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D70" s="5"/>
-      <c r="E70" s="5"/>
-      <c r="F70" s="5"/>
-      <c r="G70" s="5"/>
-      <c r="H70" s="5"/>
-      <c r="I70" s="5"/>
-      <c r="J70" s="5" t="s">
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="K70" s="5"/>
-      <c r="L70" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="M70" s="5" t="s">
+      <c r="K70" s="2"/>
+      <c r="L70" s="4"/>
+      <c r="M70" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N70" s="5" t="s">
+      <c r="N70" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="O70" s="5"/>
-      <c r="P70" s="5"/>
-      <c r="Q70" s="5"/>
-      <c r="R70" s="5"/>
-      <c r="S70" s="5"/>
-      <c r="T70" s="5"/>
-      <c r="U70" s="5" t="s">
+      <c r="O70" s="2"/>
+      <c r="P70" s="2"/>
+      <c r="Q70" s="2"/>
+      <c r="R70" s="2"/>
+      <c r="S70" s="2"/>
+      <c r="T70" s="2"/>
+      <c r="U70" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="V70" s="5"/>
+      <c r="V70" s="2"/>
     </row>
     <row r="71" spans="1:22">
       <c r="A71" s="5" t="s">
@@ -5430,9 +5428,7 @@
         <v>257</v>
       </c>
       <c r="K71" s="5"/>
-      <c r="L71" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L71" s="4"/>
       <c r="M71" s="5" t="s">
         <v>36</v>
       </c>
@@ -5480,9 +5476,7 @@
         <v>258</v>
       </c>
       <c r="K72" s="5"/>
-      <c r="L72" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L72" s="4"/>
       <c r="M72" s="5" t="s">
         <v>36</v>
       </c>
@@ -5538,9 +5532,7 @@
       <c r="K73" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="L73" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L73" s="4"/>
       <c r="M73" s="5" t="s">
         <v>36</v>
       </c>
@@ -5594,9 +5586,7 @@
         <v>258</v>
       </c>
       <c r="K74" s="5"/>
-      <c r="L74" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L74" s="4"/>
       <c r="M74" s="5" t="s">
         <v>36</v>
       </c>
@@ -5621,44 +5611,42 @@
       <c r="V74" s="5"/>
     </row>
     <row r="75" spans="1:22">
-      <c r="A75" s="5" t="s">
+      <c r="A75" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B75" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="C75" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D75" s="5"/>
-      <c r="E75" s="5"/>
-      <c r="F75" s="5"/>
-      <c r="G75" s="5"/>
-      <c r="H75" s="5"/>
-      <c r="I75" s="5"/>
-      <c r="J75" s="5" t="s">
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="K75" s="5"/>
-      <c r="L75" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="M75" s="5" t="s">
+      <c r="K75" s="2"/>
+      <c r="L75" s="4"/>
+      <c r="M75" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="N75" s="5" t="s">
+      <c r="N75" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="O75" s="5"/>
-      <c r="P75" s="5"/>
-      <c r="Q75" s="5"/>
-      <c r="R75" s="5"/>
-      <c r="S75" s="5"/>
-      <c r="T75" s="5"/>
-      <c r="U75" s="5" t="s">
+      <c r="O75" s="2"/>
+      <c r="P75" s="2"/>
+      <c r="Q75" s="2"/>
+      <c r="R75" s="2"/>
+      <c r="S75" s="2"/>
+      <c r="T75" s="2"/>
+      <c r="U75" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="V75" s="5"/>
+      <c r="V75" s="2"/>
     </row>
     <row r="76" spans="1:22">
       <c r="A76" s="5" t="s">
@@ -5682,9 +5670,7 @@
         <v>257</v>
       </c>
       <c r="K76" s="5"/>
-      <c r="L76" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L76" s="4"/>
       <c r="M76" s="5" t="s">
         <v>37</v>
       </c>
@@ -5728,9 +5714,7 @@
         <v>276</v>
       </c>
       <c r="K77" s="5"/>
-      <c r="L77" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L77" s="4"/>
       <c r="M77" s="5" t="s">
         <v>37</v>
       </c>
@@ -5778,9 +5762,7 @@
         <v>258</v>
       </c>
       <c r="K78" s="5"/>
-      <c r="L78" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L78" s="4"/>
       <c r="M78" s="5" t="s">
         <v>37</v>
       </c>
@@ -5805,48 +5787,46 @@
       <c r="V78" s="5"/>
     </row>
     <row r="79" spans="1:22">
-      <c r="A79" s="5" t="s">
+      <c r="A79" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="B79" s="5" t="s">
+      <c r="B79" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C79" s="5" t="s">
+      <c r="C79" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D79" s="5" t="s">
+      <c r="D79" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E79" s="5"/>
-      <c r="F79" s="5"/>
-      <c r="G79" s="5"/>
-      <c r="H79" s="5"/>
-      <c r="I79" s="5"/>
-      <c r="J79" s="5" t="s">
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="K79" s="5"/>
-      <c r="L79" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="M79" s="5" t="s">
+      <c r="K79" s="2"/>
+      <c r="L79" s="4"/>
+      <c r="M79" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="N79" s="5" t="s">
+      <c r="N79" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="O79" s="5" t="s">
+      <c r="O79" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="P79" s="5"/>
-      <c r="Q79" s="5"/>
-      <c r="R79" s="5"/>
-      <c r="S79" s="5"/>
-      <c r="T79" s="5"/>
-      <c r="U79" s="5" t="s">
+      <c r="P79" s="2"/>
+      <c r="Q79" s="2"/>
+      <c r="R79" s="2"/>
+      <c r="S79" s="2"/>
+      <c r="T79" s="2"/>
+      <c r="U79" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="V79" s="5"/>
+      <c r="V79" s="2"/>
     </row>
     <row r="80" spans="1:22">
       <c r="A80" s="5" t="s">
@@ -5874,9 +5854,7 @@
         <v>258</v>
       </c>
       <c r="K80" s="5"/>
-      <c r="L80" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L80" s="4"/>
       <c r="M80" s="5" t="s">
         <v>38</v>
       </c>
@@ -5928,9 +5906,7 @@
         <v>277</v>
       </c>
       <c r="K81" s="5"/>
-      <c r="L81" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L81" s="4"/>
       <c r="M81" s="5" t="s">
         <v>38</v>
       </c>
@@ -5984,9 +5960,7 @@
         <v>277</v>
       </c>
       <c r="K82" s="5"/>
-      <c r="L82" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L82" s="4"/>
       <c r="M82" s="5" t="s">
         <v>38</v>
       </c>
@@ -6040,9 +6014,7 @@
         <v>277</v>
       </c>
       <c r="K83" s="5"/>
-      <c r="L83" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L83" s="4"/>
       <c r="M83" s="5" t="s">
         <v>38</v>
       </c>
@@ -6096,9 +6068,7 @@
         <v>277</v>
       </c>
       <c r="K84" s="5"/>
-      <c r="L84" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L84" s="4"/>
       <c r="M84" s="5" t="s">
         <v>38</v>
       </c>
@@ -6152,9 +6122,7 @@
         <v>277</v>
       </c>
       <c r="K85" s="5"/>
-      <c r="L85" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L85" s="4"/>
       <c r="M85" s="5" t="s">
         <v>38</v>
       </c>
@@ -6181,44 +6149,42 @@
       <c r="V85" s="5"/>
     </row>
     <row r="86" spans="1:22">
-      <c r="A86" s="5" t="s">
+      <c r="A86" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="B86" s="5" t="s">
+      <c r="B86" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C86" s="5" t="s">
+      <c r="C86" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D86" s="5"/>
-      <c r="E86" s="5"/>
-      <c r="F86" s="5"/>
-      <c r="G86" s="5"/>
-      <c r="H86" s="5"/>
-      <c r="I86" s="5"/>
-      <c r="J86" s="5" t="s">
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="2"/>
+      <c r="J86" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="K86" s="5"/>
-      <c r="L86" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="M86" s="5" t="s">
+      <c r="K86" s="2"/>
+      <c r="L86" s="4"/>
+      <c r="M86" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="N86" s="5" t="s">
+      <c r="N86" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="O86" s="5"/>
-      <c r="P86" s="5"/>
-      <c r="Q86" s="5"/>
-      <c r="R86" s="5"/>
-      <c r="S86" s="5"/>
-      <c r="T86" s="5"/>
-      <c r="U86" s="5" t="s">
+      <c r="O86" s="2"/>
+      <c r="P86" s="2"/>
+      <c r="Q86" s="2"/>
+      <c r="R86" s="2"/>
+      <c r="S86" s="2"/>
+      <c r="T86" s="2"/>
+      <c r="U86" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="V86" s="5"/>
+      <c r="V86" s="2"/>
     </row>
     <row r="87" spans="1:22">
       <c r="A87" s="5" t="s">
@@ -6242,9 +6208,7 @@
         <v>257</v>
       </c>
       <c r="K87" s="5"/>
-      <c r="L87" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L87" s="4"/>
       <c r="M87" s="5" t="s">
         <v>39</v>
       </c>
@@ -6288,9 +6252,7 @@
         <v>278</v>
       </c>
       <c r="K88" s="5"/>
-      <c r="L88" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L88" s="4"/>
       <c r="M88" s="5" t="s">
         <v>39</v>
       </c>
@@ -6394,9 +6356,7 @@
         <v>258</v>
       </c>
       <c r="K90" s="5"/>
-      <c r="L90" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L90" s="4"/>
       <c r="M90" s="5" t="s">
         <v>39</v>
       </c>
@@ -6450,9 +6410,7 @@
         <v>258</v>
       </c>
       <c r="K91" s="5"/>
-      <c r="L91" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L91" s="4"/>
       <c r="M91" s="5" t="s">
         <v>39</v>
       </c>
@@ -6897,46 +6855,44 @@
       <c r="V99" s="9"/>
     </row>
     <row r="100" spans="1:22">
-      <c r="A100" s="5" t="s">
+      <c r="A100" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="B100" s="5" t="s">
+      <c r="B100" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C100" s="5" t="s">
+      <c r="C100" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D100" s="5"/>
-      <c r="E100" s="5"/>
-      <c r="F100" s="5"/>
-      <c r="G100" s="5"/>
-      <c r="H100" s="5"/>
-      <c r="I100" s="5"/>
-      <c r="J100" s="5" t="s">
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+      <c r="G100" s="2"/>
+      <c r="H100" s="2"/>
+      <c r="I100" s="2"/>
+      <c r="J100" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="K100" s="5" t="s">
+      <c r="K100" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="L100" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="M100" s="5" t="s">
+      <c r="L100" s="4"/>
+      <c r="M100" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N100" s="5" t="s">
+      <c r="N100" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="O100" s="5"/>
-      <c r="P100" s="5"/>
-      <c r="Q100" s="5"/>
-      <c r="R100" s="5"/>
-      <c r="S100" s="5"/>
-      <c r="T100" s="5"/>
-      <c r="U100" s="5" t="s">
+      <c r="O100" s="2"/>
+      <c r="P100" s="2"/>
+      <c r="Q100" s="2"/>
+      <c r="R100" s="2"/>
+      <c r="S100" s="2"/>
+      <c r="T100" s="2"/>
+      <c r="U100" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="V100" s="5" t="s">
+      <c r="V100" s="2" t="s">
         <v>307</v>
       </c>
     </row>
@@ -6962,9 +6918,7 @@
         <v>257</v>
       </c>
       <c r="K101" s="5"/>
-      <c r="L101" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L101" s="4"/>
       <c r="M101" s="5" t="s">
         <v>36</v>
       </c>
@@ -7012,9 +6966,7 @@
         <v>258</v>
       </c>
       <c r="K102" s="5"/>
-      <c r="L102" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L102" s="4"/>
       <c r="M102" s="5" t="s">
         <v>36</v>
       </c>
@@ -7070,9 +7022,7 @@
       <c r="K103" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="L103" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L103" s="4"/>
       <c r="M103" s="5" t="s">
         <v>36</v>
       </c>
@@ -7126,9 +7076,7 @@
         <v>258</v>
       </c>
       <c r="K104" s="5"/>
-      <c r="L104" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L104" s="4"/>
       <c r="M104" s="5" t="s">
         <v>36</v>
       </c>
@@ -7773,48 +7721,46 @@
       <c r="V120" s="9"/>
     </row>
     <row r="121" spans="1:22">
-      <c r="A121" s="5" t="s">
+      <c r="A121" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="B121" s="5" t="s">
+      <c r="B121" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C121" s="5" t="s">
+      <c r="C121" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D121" s="5" t="s">
+      <c r="D121" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E121" s="5"/>
-      <c r="F121" s="5"/>
-      <c r="G121" s="5"/>
-      <c r="H121" s="5"/>
-      <c r="I121" s="5"/>
-      <c r="J121" s="5" t="s">
+      <c r="E121" s="2"/>
+      <c r="F121" s="2"/>
+      <c r="G121" s="2"/>
+      <c r="H121" s="2"/>
+      <c r="I121" s="2"/>
+      <c r="J121" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="K121" s="5"/>
-      <c r="L121" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="M121" s="5" t="s">
+      <c r="K121" s="2"/>
+      <c r="L121" s="4"/>
+      <c r="M121" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="N121" s="5" t="s">
+      <c r="N121" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="O121" s="5" t="s">
+      <c r="O121" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="P121" s="5"/>
-      <c r="Q121" s="5"/>
-      <c r="R121" s="5"/>
-      <c r="S121" s="5"/>
-      <c r="T121" s="5"/>
-      <c r="U121" s="5" t="s">
+      <c r="P121" s="2"/>
+      <c r="Q121" s="2"/>
+      <c r="R121" s="2"/>
+      <c r="S121" s="2"/>
+      <c r="T121" s="2"/>
+      <c r="U121" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="V121" s="5"/>
+      <c r="V121" s="2"/>
     </row>
     <row r="122" spans="1:22">
       <c r="A122" s="5" t="s">
@@ -7840,9 +7786,7 @@
         <v>283</v>
       </c>
       <c r="K122" s="5"/>
-      <c r="L122" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L122" s="4"/>
       <c r="M122" s="5" t="s">
         <v>41</v>
       </c>
@@ -7921,44 +7865,42 @@
       </c>
     </row>
     <row r="124" spans="1:22">
-      <c r="A124" s="5" t="s">
+      <c r="A124" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="B124" s="5" t="s">
+      <c r="B124" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C124" s="5" t="s">
+      <c r="C124" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D124" s="5"/>
-      <c r="E124" s="5"/>
-      <c r="F124" s="5"/>
-      <c r="G124" s="5"/>
-      <c r="H124" s="5"/>
-      <c r="I124" s="5"/>
-      <c r="J124" s="5" t="s">
+      <c r="D124" s="2"/>
+      <c r="E124" s="2"/>
+      <c r="F124" s="2"/>
+      <c r="G124" s="2"/>
+      <c r="H124" s="2"/>
+      <c r="I124" s="2"/>
+      <c r="J124" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="K124" s="5"/>
-      <c r="L124" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="M124" s="5" t="s">
+      <c r="K124" s="2"/>
+      <c r="L124" s="4"/>
+      <c r="M124" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="N124" s="5" t="s">
+      <c r="N124" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="O124" s="5"/>
-      <c r="P124" s="5"/>
-      <c r="Q124" s="5"/>
-      <c r="R124" s="5"/>
-      <c r="S124" s="5"/>
-      <c r="T124" s="5"/>
-      <c r="U124" s="5" t="s">
+      <c r="O124" s="2"/>
+      <c r="P124" s="2"/>
+      <c r="Q124" s="2"/>
+      <c r="R124" s="2"/>
+      <c r="S124" s="2"/>
+      <c r="T124" s="2"/>
+      <c r="U124" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="V124" s="5"/>
+      <c r="V124" s="2"/>
     </row>
     <row r="125" spans="1:22">
       <c r="A125" s="5" t="s">
@@ -7982,9 +7924,7 @@
         <v>257</v>
       </c>
       <c r="K125" s="5"/>
-      <c r="L125" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L125" s="4"/>
       <c r="M125" s="5" t="s">
         <v>42</v>
       </c>
@@ -8032,9 +7972,7 @@
         <v>258</v>
       </c>
       <c r="K126" s="5"/>
-      <c r="L126" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L126" s="4"/>
       <c r="M126" s="5" t="s">
         <v>42</v>
       </c>
@@ -8088,9 +8026,7 @@
         <v>258</v>
       </c>
       <c r="K127" s="5"/>
-      <c r="L127" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L127" s="4"/>
       <c r="M127" s="5" t="s">
         <v>42</v>
       </c>
@@ -8144,9 +8080,7 @@
         <v>258</v>
       </c>
       <c r="K128" s="5"/>
-      <c r="L128" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L128" s="4"/>
       <c r="M128" s="5" t="s">
         <v>42</v>
       </c>
@@ -8173,44 +8107,42 @@
       <c r="V128" s="5"/>
     </row>
     <row r="129" spans="1:22">
-      <c r="A129" s="5" t="s">
+      <c r="A129" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="B129" s="5" t="s">
+      <c r="B129" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C129" s="5" t="s">
+      <c r="C129" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D129" s="5"/>
-      <c r="E129" s="5"/>
-      <c r="F129" s="5"/>
-      <c r="G129" s="5"/>
-      <c r="H129" s="5"/>
-      <c r="I129" s="5"/>
-      <c r="J129" s="5" t="s">
+      <c r="D129" s="2"/>
+      <c r="E129" s="2"/>
+      <c r="F129" s="2"/>
+      <c r="G129" s="2"/>
+      <c r="H129" s="2"/>
+      <c r="I129" s="2"/>
+      <c r="J129" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="K129" s="5"/>
-      <c r="L129" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="M129" s="5" t="s">
+      <c r="K129" s="2"/>
+      <c r="L129" s="4"/>
+      <c r="M129" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="N129" s="5" t="s">
+      <c r="N129" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O129" s="5"/>
-      <c r="P129" s="5"/>
-      <c r="Q129" s="5"/>
-      <c r="R129" s="5"/>
-      <c r="S129" s="5"/>
-      <c r="T129" s="5"/>
-      <c r="U129" s="5" t="s">
+      <c r="O129" s="2"/>
+      <c r="P129" s="2"/>
+      <c r="Q129" s="2"/>
+      <c r="R129" s="2"/>
+      <c r="S129" s="2"/>
+      <c r="T129" s="2"/>
+      <c r="U129" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="V129" s="5"/>
+      <c r="V129" s="2"/>
     </row>
     <row r="130" spans="1:22">
       <c r="A130" s="5" t="s">
@@ -8234,9 +8166,7 @@
         <v>257</v>
       </c>
       <c r="K130" s="5"/>
-      <c r="L130" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L130" s="4"/>
       <c r="M130" s="5" t="s">
         <v>43</v>
       </c>
@@ -8280,9 +8210,7 @@
         <v>285</v>
       </c>
       <c r="K131" s="5"/>
-      <c r="L131" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L131" s="4"/>
       <c r="M131" s="5" t="s">
         <v>43</v>
       </c>
@@ -8305,48 +8233,46 @@
       <c r="V131" s="5"/>
     </row>
     <row r="132" spans="1:22">
-      <c r="A132" s="5" t="s">
+      <c r="A132" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="B132" s="5" t="s">
+      <c r="B132" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C132" s="5" t="s">
+      <c r="C132" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D132" s="5" t="s">
+      <c r="D132" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E132" s="5"/>
-      <c r="F132" s="5"/>
-      <c r="G132" s="5"/>
-      <c r="H132" s="5"/>
-      <c r="I132" s="5"/>
-      <c r="J132" s="5" t="s">
+      <c r="E132" s="2"/>
+      <c r="F132" s="2"/>
+      <c r="G132" s="2"/>
+      <c r="H132" s="2"/>
+      <c r="I132" s="2"/>
+      <c r="J132" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="K132" s="5"/>
-      <c r="L132" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="M132" s="5" t="s">
+      <c r="K132" s="2"/>
+      <c r="L132" s="4"/>
+      <c r="M132" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="N132" s="5" t="s">
+      <c r="N132" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O132" s="5" t="s">
+      <c r="O132" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="P132" s="5"/>
-      <c r="Q132" s="5"/>
-      <c r="R132" s="5"/>
-      <c r="S132" s="5"/>
-      <c r="T132" s="5"/>
-      <c r="U132" s="5" t="s">
+      <c r="P132" s="2"/>
+      <c r="Q132" s="2"/>
+      <c r="R132" s="2"/>
+      <c r="S132" s="2"/>
+      <c r="T132" s="2"/>
+      <c r="U132" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="V132" s="5"/>
+      <c r="V132" s="2"/>
     </row>
     <row r="133" spans="1:22">
       <c r="A133" s="5" t="s">
@@ -8376,9 +8302,7 @@
         <v>258</v>
       </c>
       <c r="K133" s="5"/>
-      <c r="L133" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L133" s="4"/>
       <c r="M133" s="5" t="s">
         <v>44</v>
       </c>
@@ -8430,9 +8354,7 @@
         <v>286</v>
       </c>
       <c r="K134" s="5"/>
-      <c r="L134" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L134" s="4"/>
       <c r="M134" s="5" t="s">
         <v>44</v>
       </c>
@@ -8484,9 +8406,7 @@
         <v>258</v>
       </c>
       <c r="K135" s="5"/>
-      <c r="L135" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L135" s="4"/>
       <c r="M135" s="5" t="s">
         <v>44</v>
       </c>
@@ -8513,44 +8433,42 @@
       <c r="V135" s="5"/>
     </row>
     <row r="136" spans="1:22">
-      <c r="A136" s="5" t="s">
+      <c r="A136" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="B136" s="5" t="s">
+      <c r="B136" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C136" s="5" t="s">
+      <c r="C136" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D136" s="5"/>
-      <c r="E136" s="5"/>
-      <c r="F136" s="5"/>
-      <c r="G136" s="5"/>
-      <c r="H136" s="5"/>
-      <c r="I136" s="5"/>
-      <c r="J136" s="5" t="s">
+      <c r="D136" s="2"/>
+      <c r="E136" s="2"/>
+      <c r="F136" s="2"/>
+      <c r="G136" s="2"/>
+      <c r="H136" s="2"/>
+      <c r="I136" s="2"/>
+      <c r="J136" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="K136" s="5"/>
-      <c r="L136" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="M136" s="5" t="s">
+      <c r="K136" s="2"/>
+      <c r="L136" s="4"/>
+      <c r="M136" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="N136" s="5" t="s">
+      <c r="N136" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="O136" s="5"/>
-      <c r="P136" s="5"/>
-      <c r="Q136" s="5"/>
-      <c r="R136" s="5"/>
-      <c r="S136" s="5"/>
-      <c r="T136" s="5"/>
-      <c r="U136" s="5" t="s">
+      <c r="O136" s="2"/>
+      <c r="P136" s="2"/>
+      <c r="Q136" s="2"/>
+      <c r="R136" s="2"/>
+      <c r="S136" s="2"/>
+      <c r="T136" s="2"/>
+      <c r="U136" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="V136" s="5"/>
+      <c r="V136" s="2"/>
     </row>
     <row r="137" spans="1:22">
       <c r="A137" s="5" t="s">
@@ -8574,9 +8492,7 @@
         <v>257</v>
       </c>
       <c r="K137" s="5"/>
-      <c r="L137" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L137" s="4"/>
       <c r="M137" s="5" t="s">
         <v>45</v>
       </c>
@@ -8624,9 +8540,7 @@
       <c r="K138" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="L138" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L138" s="4"/>
       <c r="M138" s="5" t="s">
         <v>45</v>
       </c>
@@ -8680,9 +8594,7 @@
       <c r="K139" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="L139" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L139" s="4"/>
       <c r="M139" s="5" t="s">
         <v>45</v>
       </c>
@@ -8736,9 +8648,7 @@
         <v>258</v>
       </c>
       <c r="K140" s="5"/>
-      <c r="L140" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L140" s="4"/>
       <c r="M140" s="5" t="s">
         <v>45</v>
       </c>
@@ -8765,48 +8675,46 @@
       <c r="V140" s="5"/>
     </row>
     <row r="141" spans="1:22">
-      <c r="A141" s="5" t="s">
+      <c r="A141" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="B141" s="5" t="s">
+      <c r="B141" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C141" s="5" t="s">
+      <c r="C141" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D141" s="5" t="s">
+      <c r="D141" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E141" s="5"/>
-      <c r="F141" s="5"/>
-      <c r="G141" s="5"/>
-      <c r="H141" s="5"/>
-      <c r="I141" s="5"/>
-      <c r="J141" s="5" t="s">
+      <c r="E141" s="2"/>
+      <c r="F141" s="2"/>
+      <c r="G141" s="2"/>
+      <c r="H141" s="2"/>
+      <c r="I141" s="2"/>
+      <c r="J141" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="K141" s="5"/>
-      <c r="L141" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="M141" s="5" t="s">
+      <c r="K141" s="2"/>
+      <c r="L141" s="4"/>
+      <c r="M141" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="N141" s="5" t="s">
+      <c r="N141" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="O141" s="5" t="s">
+      <c r="O141" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="P141" s="5"/>
-      <c r="Q141" s="5"/>
-      <c r="R141" s="5"/>
-      <c r="S141" s="5"/>
-      <c r="T141" s="5"/>
-      <c r="U141" s="5" t="s">
+      <c r="P141" s="2"/>
+      <c r="Q141" s="2"/>
+      <c r="R141" s="2"/>
+      <c r="S141" s="2"/>
+      <c r="T141" s="2"/>
+      <c r="U141" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="V141" s="5"/>
+      <c r="V141" s="2"/>
     </row>
     <row r="142" spans="1:22">
       <c r="A142" s="5" t="s">
@@ -8836,9 +8744,7 @@
         <v>258</v>
       </c>
       <c r="K142" s="5"/>
-      <c r="L142" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L142" s="4"/>
       <c r="M142" s="5" t="s">
         <v>46</v>
       </c>
@@ -8892,9 +8798,7 @@
       <c r="K143" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="L143" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L143" s="4"/>
       <c r="M143" s="5" t="s">
         <v>46</v>
       </c>
@@ -8948,9 +8852,7 @@
         <v>258</v>
       </c>
       <c r="K144" s="5"/>
-      <c r="L144" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L144" s="4"/>
       <c r="M144" s="5" t="s">
         <v>46</v>
       </c>
@@ -9004,9 +8906,7 @@
         <v>258</v>
       </c>
       <c r="K145" s="5"/>
-      <c r="L145" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L145" s="4"/>
       <c r="M145" s="5" t="s">
         <v>46</v>
       </c>
@@ -9033,50 +8933,48 @@
       <c r="V145" s="5"/>
     </row>
     <row r="146" spans="1:22">
-      <c r="A146" s="5" t="s">
+      <c r="A146" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="B146" s="5" t="s">
+      <c r="B146" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C146" s="5" t="s">
+      <c r="C146" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D146" s="5" t="s">
+      <c r="D146" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E146" s="5"/>
-      <c r="F146" s="5"/>
-      <c r="G146" s="5"/>
-      <c r="H146" s="5"/>
-      <c r="I146" s="5"/>
-      <c r="J146" s="5" t="s">
+      <c r="E146" s="2"/>
+      <c r="F146" s="2"/>
+      <c r="G146" s="2"/>
+      <c r="H146" s="2"/>
+      <c r="I146" s="2"/>
+      <c r="J146" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="K146" s="5" t="s">
+      <c r="K146" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="L146" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="M146" s="5" t="s">
+      <c r="L146" s="4"/>
+      <c r="M146" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="N146" s="5" t="s">
+      <c r="N146" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="O146" s="5" t="s">
+      <c r="O146" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="P146" s="5"/>
-      <c r="Q146" s="5"/>
-      <c r="R146" s="5"/>
-      <c r="S146" s="5"/>
-      <c r="T146" s="5"/>
-      <c r="U146" s="5" t="s">
+      <c r="P146" s="2"/>
+      <c r="Q146" s="2"/>
+      <c r="R146" s="2"/>
+      <c r="S146" s="2"/>
+      <c r="T146" s="2"/>
+      <c r="U146" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="V146" s="5" t="s">
+      <c r="V146" s="2" t="s">
         <v>297</v>
       </c>
     </row>
@@ -9108,9 +9006,7 @@
         <v>258</v>
       </c>
       <c r="K147" s="5"/>
-      <c r="L147" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L147" s="4"/>
       <c r="M147" s="5" t="s">
         <v>47</v>
       </c>
@@ -9216,9 +9112,7 @@
         <v>258</v>
       </c>
       <c r="K149" s="5"/>
-      <c r="L149" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L149" s="4"/>
       <c r="M149" s="5" t="s">
         <v>47</v>
       </c>
@@ -9245,50 +9139,48 @@
       <c r="V149" s="5"/>
     </row>
     <row r="150" spans="1:22">
-      <c r="A150" s="5" t="s">
+      <c r="A150" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="B150" s="5" t="s">
+      <c r="B150" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C150" s="5" t="s">
+      <c r="C150" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D150" s="5" t="s">
+      <c r="D150" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E150" s="5"/>
-      <c r="F150" s="5"/>
-      <c r="G150" s="5"/>
-      <c r="H150" s="5"/>
-      <c r="I150" s="5"/>
-      <c r="J150" s="5" t="s">
+      <c r="E150" s="2"/>
+      <c r="F150" s="2"/>
+      <c r="G150" s="2"/>
+      <c r="H150" s="2"/>
+      <c r="I150" s="2"/>
+      <c r="J150" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="K150" s="5" t="s">
+      <c r="K150" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="L150" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="M150" s="5" t="s">
+      <c r="L150" s="4"/>
+      <c r="M150" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="N150" s="5" t="s">
+      <c r="N150" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="O150" s="5" t="s">
+      <c r="O150" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="P150" s="5"/>
-      <c r="Q150" s="5"/>
-      <c r="R150" s="5"/>
-      <c r="S150" s="5"/>
-      <c r="T150" s="5"/>
-      <c r="U150" s="5" t="s">
+      <c r="P150" s="2"/>
+      <c r="Q150" s="2"/>
+      <c r="R150" s="2"/>
+      <c r="S150" s="2"/>
+      <c r="T150" s="2"/>
+      <c r="U150" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="V150" s="5" t="s">
+      <c r="V150" s="2" t="s">
         <v>297</v>
       </c>
     </row>
@@ -9320,9 +9212,7 @@
         <v>258</v>
       </c>
       <c r="K151" s="5"/>
-      <c r="L151" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L151" s="4"/>
       <c r="M151" s="5" t="s">
         <v>48</v>
       </c>
@@ -9428,9 +9318,7 @@
         <v>258</v>
       </c>
       <c r="K153" s="5"/>
-      <c r="L153" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L153" s="4"/>
       <c r="M153" s="5" t="s">
         <v>48</v>
       </c>
@@ -9457,50 +9345,48 @@
       <c r="V153" s="5"/>
     </row>
     <row r="154" spans="1:22">
-      <c r="A154" s="5" t="s">
+      <c r="A154" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="B154" s="5" t="s">
+      <c r="B154" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C154" s="5" t="s">
+      <c r="C154" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D154" s="5" t="s">
+      <c r="D154" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E154" s="5"/>
-      <c r="F154" s="5"/>
-      <c r="G154" s="5"/>
-      <c r="H154" s="5"/>
-      <c r="I154" s="5"/>
-      <c r="J154" s="5" t="s">
+      <c r="E154" s="2"/>
+      <c r="F154" s="2"/>
+      <c r="G154" s="2"/>
+      <c r="H154" s="2"/>
+      <c r="I154" s="2"/>
+      <c r="J154" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="K154" s="5" t="s">
+      <c r="K154" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="L154" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="M154" s="5" t="s">
+      <c r="L154" s="4"/>
+      <c r="M154" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="N154" s="5" t="s">
+      <c r="N154" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="O154" s="5" t="s">
+      <c r="O154" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="P154" s="5"/>
-      <c r="Q154" s="5"/>
-      <c r="R154" s="5"/>
-      <c r="S154" s="5"/>
-      <c r="T154" s="5"/>
-      <c r="U154" s="5" t="s">
+      <c r="P154" s="2"/>
+      <c r="Q154" s="2"/>
+      <c r="R154" s="2"/>
+      <c r="S154" s="2"/>
+      <c r="T154" s="2"/>
+      <c r="U154" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="V154" s="5" t="s">
+      <c r="V154" s="2" t="s">
         <v>298</v>
       </c>
     </row>
@@ -9532,9 +9418,7 @@
         <v>258</v>
       </c>
       <c r="K155" s="5"/>
-      <c r="L155" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L155" s="4"/>
       <c r="M155" s="5" t="s">
         <v>28</v>
       </c>
@@ -9588,9 +9472,7 @@
       <c r="K156" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="L156" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L156" s="4"/>
       <c r="M156" s="5" t="s">
         <v>28</v>
       </c>
@@ -9644,9 +9526,7 @@
         <v>258</v>
       </c>
       <c r="K157" s="5"/>
-      <c r="L157" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L157" s="4"/>
       <c r="M157" s="5" t="s">
         <v>28</v>
       </c>
@@ -9673,44 +9553,42 @@
       <c r="V157" s="5"/>
     </row>
     <row r="158" spans="1:22">
-      <c r="A158" s="5" t="s">
+      <c r="A158" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="B158" s="5" t="s">
+      <c r="B158" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C158" s="5" t="s">
+      <c r="C158" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D158" s="5"/>
-      <c r="E158" s="5"/>
-      <c r="F158" s="5"/>
-      <c r="G158" s="5"/>
-      <c r="H158" s="5"/>
-      <c r="I158" s="5"/>
-      <c r="J158" s="5" t="s">
+      <c r="D158" s="2"/>
+      <c r="E158" s="2"/>
+      <c r="F158" s="2"/>
+      <c r="G158" s="2"/>
+      <c r="H158" s="2"/>
+      <c r="I158" s="2"/>
+      <c r="J158" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="K158" s="5"/>
-      <c r="L158" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="M158" s="5" t="s">
+      <c r="K158" s="2"/>
+      <c r="L158" s="4"/>
+      <c r="M158" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="N158" s="5" t="s">
+      <c r="N158" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="O158" s="5"/>
-      <c r="P158" s="5"/>
-      <c r="Q158" s="5"/>
-      <c r="R158" s="5"/>
-      <c r="S158" s="5"/>
-      <c r="T158" s="5"/>
-      <c r="U158" s="5" t="s">
+      <c r="O158" s="2"/>
+      <c r="P158" s="2"/>
+      <c r="Q158" s="2"/>
+      <c r="R158" s="2"/>
+      <c r="S158" s="2"/>
+      <c r="T158" s="2"/>
+      <c r="U158" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="V158" s="5"/>
+      <c r="V158" s="2"/>
     </row>
     <row r="159" spans="1:22">
       <c r="A159" s="5" t="s">
@@ -9734,9 +9612,7 @@
         <v>257</v>
       </c>
       <c r="K159" s="5"/>
-      <c r="L159" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L159" s="4"/>
       <c r="M159" s="5" t="s">
         <v>49</v>
       </c>
@@ -9784,9 +9660,7 @@
         <v>258</v>
       </c>
       <c r="K160" s="5"/>
-      <c r="L160" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L160" s="4"/>
       <c r="M160" s="5" t="s">
         <v>49</v>
       </c>
@@ -9840,9 +9714,7 @@
       <c r="K161" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="L161" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L161" s="4"/>
       <c r="M161" s="5" t="s">
         <v>49</v>
       </c>
@@ -9869,44 +9741,42 @@
       </c>
     </row>
     <row r="162" spans="1:22">
-      <c r="A162" s="5" t="s">
+      <c r="A162" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B162" s="5" t="s">
+      <c r="B162" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C162" s="5" t="s">
+      <c r="C162" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D162" s="5"/>
-      <c r="E162" s="5"/>
-      <c r="F162" s="5"/>
-      <c r="G162" s="5"/>
-      <c r="H162" s="5"/>
-      <c r="I162" s="5"/>
-      <c r="J162" s="5" t="s">
+      <c r="D162" s="2"/>
+      <c r="E162" s="2"/>
+      <c r="F162" s="2"/>
+      <c r="G162" s="2"/>
+      <c r="H162" s="2"/>
+      <c r="I162" s="2"/>
+      <c r="J162" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="K162" s="5"/>
-      <c r="L162" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="M162" s="5" t="s">
+      <c r="K162" s="2"/>
+      <c r="L162" s="4"/>
+      <c r="M162" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="N162" s="5" t="s">
+      <c r="N162" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="O162" s="5"/>
-      <c r="P162" s="5"/>
-      <c r="Q162" s="5"/>
-      <c r="R162" s="5"/>
-      <c r="S162" s="5"/>
-      <c r="T162" s="5"/>
-      <c r="U162" s="5" t="s">
+      <c r="O162" s="2"/>
+      <c r="P162" s="2"/>
+      <c r="Q162" s="2"/>
+      <c r="R162" s="2"/>
+      <c r="S162" s="2"/>
+      <c r="T162" s="2"/>
+      <c r="U162" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="V162" s="5"/>
+      <c r="V162" s="2"/>
     </row>
     <row r="163" spans="1:22">
       <c r="A163" s="5" t="s">
@@ -9930,9 +9800,7 @@
         <v>257</v>
       </c>
       <c r="K163" s="5"/>
-      <c r="L163" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L163" s="4"/>
       <c r="M163" s="5" t="s">
         <v>50</v>
       </c>
@@ -9980,9 +9848,7 @@
         <v>258</v>
       </c>
       <c r="K164" s="5"/>
-      <c r="L164" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L164" s="4"/>
       <c r="M164" s="5" t="s">
         <v>50</v>
       </c>
@@ -10036,9 +9902,7 @@
       <c r="K165" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="L165" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L165" s="4"/>
       <c r="M165" s="5" t="s">
         <v>50</v>
       </c>
@@ -10065,44 +9929,42 @@
       </c>
     </row>
     <row r="166" spans="1:22">
-      <c r="A166" s="5" t="s">
+      <c r="A166" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="B166" s="5" t="s">
+      <c r="B166" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C166" s="5" t="s">
+      <c r="C166" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D166" s="5"/>
-      <c r="E166" s="5"/>
-      <c r="F166" s="5"/>
-      <c r="G166" s="5"/>
-      <c r="H166" s="5"/>
-      <c r="I166" s="5"/>
-      <c r="J166" s="5" t="s">
+      <c r="D166" s="2"/>
+      <c r="E166" s="2"/>
+      <c r="F166" s="2"/>
+      <c r="G166" s="2"/>
+      <c r="H166" s="2"/>
+      <c r="I166" s="2"/>
+      <c r="J166" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="K166" s="5"/>
-      <c r="L166" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="M166" s="5" t="s">
+      <c r="K166" s="2"/>
+      <c r="L166" s="4"/>
+      <c r="M166" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="N166" s="5" t="s">
+      <c r="N166" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="O166" s="5"/>
-      <c r="P166" s="5"/>
-      <c r="Q166" s="5"/>
-      <c r="R166" s="5"/>
-      <c r="S166" s="5"/>
-      <c r="T166" s="5"/>
-      <c r="U166" s="5" t="s">
+      <c r="O166" s="2"/>
+      <c r="P166" s="2"/>
+      <c r="Q166" s="2"/>
+      <c r="R166" s="2"/>
+      <c r="S166" s="2"/>
+      <c r="T166" s="2"/>
+      <c r="U166" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="V166" s="5"/>
+      <c r="V166" s="2"/>
     </row>
     <row r="167" spans="1:22">
       <c r="A167" s="5" t="s">
@@ -10126,9 +9988,7 @@
         <v>257</v>
       </c>
       <c r="K167" s="5"/>
-      <c r="L167" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L167" s="4"/>
       <c r="M167" s="5" t="s">
         <v>51</v>
       </c>
@@ -10172,9 +10032,7 @@
         <v>292</v>
       </c>
       <c r="K168" s="5"/>
-      <c r="L168" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L168" s="4"/>
       <c r="M168" s="5" t="s">
         <v>51</v>
       </c>
@@ -10224,9 +10082,7 @@
         <v>258</v>
       </c>
       <c r="K169" s="5"/>
-      <c r="L169" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L169" s="4"/>
       <c r="M169" s="5" t="s">
         <v>51</v>
       </c>
@@ -10280,9 +10136,7 @@
       <c r="K170" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="L170" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L170" s="4"/>
       <c r="M170" s="5" t="s">
         <v>51</v>
       </c>
@@ -10334,9 +10188,7 @@
         <v>294</v>
       </c>
       <c r="K171" s="5"/>
-      <c r="L171" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L171" s="4"/>
       <c r="M171" s="5" t="s">
         <v>51</v>
       </c>
@@ -10361,44 +10213,42 @@
       <c r="V171" s="5"/>
     </row>
     <row r="172" spans="1:22">
-      <c r="A172" s="5" t="s">
+      <c r="A172" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B172" s="5" t="s">
+      <c r="B172" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C172" s="5"/>
-      <c r="D172" s="5" t="s">
+      <c r="C172" s="2"/>
+      <c r="D172" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E172" s="5"/>
-      <c r="F172" s="5"/>
-      <c r="G172" s="5"/>
-      <c r="H172" s="5"/>
-      <c r="I172" s="5"/>
-      <c r="J172" s="5" t="s">
+      <c r="E172" s="2"/>
+      <c r="F172" s="2"/>
+      <c r="G172" s="2"/>
+      <c r="H172" s="2"/>
+      <c r="I172" s="2"/>
+      <c r="J172" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="K172" s="5"/>
-      <c r="L172" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="M172" s="5" t="s">
+      <c r="K172" s="2"/>
+      <c r="L172" s="4"/>
+      <c r="M172" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="N172" s="5"/>
-      <c r="O172" s="5" t="s">
+      <c r="N172" s="2"/>
+      <c r="O172" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="P172" s="5"/>
-      <c r="Q172" s="5"/>
-      <c r="R172" s="5"/>
-      <c r="S172" s="5"/>
-      <c r="T172" s="5"/>
-      <c r="U172" s="5" t="s">
+      <c r="P172" s="2"/>
+      <c r="Q172" s="2"/>
+      <c r="R172" s="2"/>
+      <c r="S172" s="2"/>
+      <c r="T172" s="2"/>
+      <c r="U172" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="V172" s="5"/>
+      <c r="V172" s="2"/>
     </row>
     <row r="173" spans="1:22">
       <c r="A173" s="5" t="s">
@@ -10424,9 +10274,7 @@
         <v>295</v>
       </c>
       <c r="K173" s="5"/>
-      <c r="L173" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L173" s="4"/>
       <c r="M173" s="5" t="s">
         <v>52</v>
       </c>
@@ -10449,44 +10297,42 @@
       <c r="V173" s="5"/>
     </row>
     <row r="174" spans="1:22">
-      <c r="A174" s="5" t="s">
+      <c r="A174" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="B174" s="5" t="s">
+      <c r="B174" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C174" s="5" t="s">
+      <c r="C174" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D174" s="5"/>
-      <c r="E174" s="5"/>
-      <c r="F174" s="5"/>
-      <c r="G174" s="5"/>
-      <c r="H174" s="5"/>
-      <c r="I174" s="5"/>
-      <c r="J174" s="5" t="s">
+      <c r="D174" s="2"/>
+      <c r="E174" s="2"/>
+      <c r="F174" s="2"/>
+      <c r="G174" s="2"/>
+      <c r="H174" s="2"/>
+      <c r="I174" s="2"/>
+      <c r="J174" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="K174" s="5"/>
-      <c r="L174" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="M174" s="5" t="s">
+      <c r="K174" s="2"/>
+      <c r="L174" s="4"/>
+      <c r="M174" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="N174" s="5" t="s">
+      <c r="N174" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="O174" s="5"/>
-      <c r="P174" s="5"/>
-      <c r="Q174" s="5"/>
-      <c r="R174" s="5"/>
-      <c r="S174" s="5"/>
-      <c r="T174" s="5"/>
-      <c r="U174" s="5" t="s">
+      <c r="O174" s="2"/>
+      <c r="P174" s="2"/>
+      <c r="Q174" s="2"/>
+      <c r="R174" s="2"/>
+      <c r="S174" s="2"/>
+      <c r="T174" s="2"/>
+      <c r="U174" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="V174" s="5"/>
+      <c r="V174" s="2"/>
     </row>
     <row r="175" spans="1:22">
       <c r="A175" s="5" t="s">
@@ -10510,9 +10356,7 @@
         <v>257</v>
       </c>
       <c r="K175" s="5"/>
-      <c r="L175" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L175" s="4"/>
       <c r="M175" s="5" t="s">
         <v>53</v>
       </c>
@@ -10560,9 +10404,7 @@
         <v>258</v>
       </c>
       <c r="K176" s="5"/>
-      <c r="L176" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L176" s="4"/>
       <c r="M176" s="5" t="s">
         <v>53</v>
       </c>
@@ -10616,9 +10458,7 @@
       <c r="K177" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="L177" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L177" s="4"/>
       <c r="M177" s="5" t="s">
         <v>53</v>
       </c>
@@ -10645,44 +10485,42 @@
       </c>
     </row>
     <row r="178" spans="1:22">
-      <c r="A178" s="5" t="s">
+      <c r="A178" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="B178" s="5" t="s">
+      <c r="B178" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C178" s="5" t="s">
+      <c r="C178" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D178" s="5"/>
-      <c r="E178" s="5"/>
-      <c r="F178" s="5"/>
-      <c r="G178" s="5"/>
-      <c r="H178" s="5"/>
-      <c r="I178" s="5"/>
-      <c r="J178" s="5" t="s">
+      <c r="D178" s="2"/>
+      <c r="E178" s="2"/>
+      <c r="F178" s="2"/>
+      <c r="G178" s="2"/>
+      <c r="H178" s="2"/>
+      <c r="I178" s="2"/>
+      <c r="J178" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="K178" s="5"/>
-      <c r="L178" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="M178" s="5" t="s">
+      <c r="K178" s="2"/>
+      <c r="L178" s="4"/>
+      <c r="M178" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="N178" s="5" t="s">
+      <c r="N178" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="O178" s="5"/>
-      <c r="P178" s="5"/>
-      <c r="Q178" s="5"/>
-      <c r="R178" s="5"/>
-      <c r="S178" s="5"/>
-      <c r="T178" s="5"/>
-      <c r="U178" s="5" t="s">
+      <c r="O178" s="2"/>
+      <c r="P178" s="2"/>
+      <c r="Q178" s="2"/>
+      <c r="R178" s="2"/>
+      <c r="S178" s="2"/>
+      <c r="T178" s="2"/>
+      <c r="U178" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="V178" s="5"/>
+      <c r="V178" s="2"/>
     </row>
     <row r="179" spans="1:22">
       <c r="A179" s="5" t="s">
@@ -10706,9 +10544,7 @@
         <v>257</v>
       </c>
       <c r="K179" s="5"/>
-      <c r="L179" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L179" s="4"/>
       <c r="M179" s="5" t="s">
         <v>54</v>
       </c>
@@ -10756,9 +10592,7 @@
         <v>258</v>
       </c>
       <c r="K180" s="5"/>
-      <c r="L180" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L180" s="4"/>
       <c r="M180" s="5" t="s">
         <v>54</v>
       </c>
@@ -10812,9 +10646,7 @@
       <c r="K181" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="L181" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L181" s="4"/>
       <c r="M181" s="5" t="s">
         <v>54</v>
       </c>
@@ -10841,44 +10673,42 @@
       </c>
     </row>
     <row r="182" spans="1:22">
-      <c r="A182" s="5" t="s">
+      <c r="A182" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="B182" s="5" t="s">
+      <c r="B182" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C182" s="5" t="s">
+      <c r="C182" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D182" s="5"/>
-      <c r="E182" s="5"/>
-      <c r="F182" s="5"/>
-      <c r="G182" s="5"/>
-      <c r="H182" s="5"/>
-      <c r="I182" s="5"/>
-      <c r="J182" s="5" t="s">
+      <c r="D182" s="2"/>
+      <c r="E182" s="2"/>
+      <c r="F182" s="2"/>
+      <c r="G182" s="2"/>
+      <c r="H182" s="2"/>
+      <c r="I182" s="2"/>
+      <c r="J182" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="K182" s="5"/>
-      <c r="L182" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="M182" s="5" t="s">
+      <c r="K182" s="2"/>
+      <c r="L182" s="4"/>
+      <c r="M182" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="N182" s="5" t="s">
+      <c r="N182" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="O182" s="5"/>
-      <c r="P182" s="5"/>
-      <c r="Q182" s="5"/>
-      <c r="R182" s="5"/>
-      <c r="S182" s="5"/>
-      <c r="T182" s="5"/>
-      <c r="U182" s="5" t="s">
+      <c r="O182" s="2"/>
+      <c r="P182" s="2"/>
+      <c r="Q182" s="2"/>
+      <c r="R182" s="2"/>
+      <c r="S182" s="2"/>
+      <c r="T182" s="2"/>
+      <c r="U182" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="V182" s="5"/>
+      <c r="V182" s="2"/>
     </row>
     <row r="183" spans="1:22">
       <c r="A183" s="5" t="s">
@@ -10902,9 +10732,7 @@
         <v>257</v>
       </c>
       <c r="K183" s="5"/>
-      <c r="L183" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L183" s="4"/>
       <c r="M183" s="5" t="s">
         <v>55</v>
       </c>
@@ -10948,9 +10776,7 @@
         <v>292</v>
       </c>
       <c r="K184" s="5"/>
-      <c r="L184" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L184" s="4"/>
       <c r="M184" s="5" t="s">
         <v>55</v>
       </c>
@@ -11000,9 +10826,7 @@
         <v>258</v>
       </c>
       <c r="K185" s="5"/>
-      <c r="L185" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L185" s="4"/>
       <c r="M185" s="5" t="s">
         <v>55</v>
       </c>
@@ -11056,9 +10880,7 @@
       <c r="K186" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="L186" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L186" s="4"/>
       <c r="M186" s="5" t="s">
         <v>55</v>
       </c>
@@ -11110,9 +10932,7 @@
         <v>294</v>
       </c>
       <c r="K187" s="5"/>
-      <c r="L187" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L187" s="4"/>
       <c r="M187" s="5" t="s">
         <v>55</v>
       </c>
@@ -11137,48 +10957,46 @@
       <c r="V187" s="5"/>
     </row>
     <row r="188" spans="1:22">
-      <c r="A188" s="5" t="s">
+      <c r="A188" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="B188" s="5" t="s">
+      <c r="B188" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C188" s="5" t="s">
+      <c r="C188" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D188" s="5" t="s">
+      <c r="D188" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E188" s="5"/>
-      <c r="F188" s="5"/>
-      <c r="G188" s="5"/>
-      <c r="H188" s="5"/>
-      <c r="I188" s="5"/>
-      <c r="J188" s="5" t="s">
+      <c r="E188" s="2"/>
+      <c r="F188" s="2"/>
+      <c r="G188" s="2"/>
+      <c r="H188" s="2"/>
+      <c r="I188" s="2"/>
+      <c r="J188" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="K188" s="5"/>
-      <c r="L188" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="M188" s="5" t="s">
+      <c r="K188" s="2"/>
+      <c r="L188" s="4"/>
+      <c r="M188" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N188" s="5" t="s">
+      <c r="N188" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="O188" s="5" t="s">
+      <c r="O188" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="P188" s="5"/>
-      <c r="Q188" s="5"/>
-      <c r="R188" s="5"/>
-      <c r="S188" s="5"/>
-      <c r="T188" s="5"/>
-      <c r="U188" s="5" t="s">
+      <c r="P188" s="2"/>
+      <c r="Q188" s="2"/>
+      <c r="R188" s="2"/>
+      <c r="S188" s="2"/>
+      <c r="T188" s="2"/>
+      <c r="U188" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="V188" s="5"/>
+      <c r="V188" s="2"/>
     </row>
     <row r="189" spans="1:22">
       <c r="A189" s="5" t="s">
@@ -11208,9 +11026,7 @@
         <v>258</v>
       </c>
       <c r="K189" s="5"/>
-      <c r="L189" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L189" s="4"/>
       <c r="M189" s="5" t="s">
         <v>56</v>
       </c>
@@ -11264,9 +11080,7 @@
       <c r="K190" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="L190" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L190" s="4"/>
       <c r="M190" s="5" t="s">
         <v>56</v>
       </c>
@@ -11293,48 +11107,46 @@
       </c>
     </row>
     <row r="191" spans="1:22">
-      <c r="A191" s="5" t="s">
+      <c r="A191" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="B191" s="5" t="s">
+      <c r="B191" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C191" s="5" t="s">
+      <c r="C191" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D191" s="5" t="s">
+      <c r="D191" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E191" s="5"/>
-      <c r="F191" s="5"/>
-      <c r="G191" s="5"/>
-      <c r="H191" s="5"/>
-      <c r="I191" s="5"/>
-      <c r="J191" s="5" t="s">
+      <c r="E191" s="2"/>
+      <c r="F191" s="2"/>
+      <c r="G191" s="2"/>
+      <c r="H191" s="2"/>
+      <c r="I191" s="2"/>
+      <c r="J191" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="K191" s="5"/>
-      <c r="L191" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="M191" s="5" t="s">
+      <c r="K191" s="2"/>
+      <c r="L191" s="4"/>
+      <c r="M191" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="N191" s="5" t="s">
+      <c r="N191" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="O191" s="5" t="s">
+      <c r="O191" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="P191" s="5"/>
-      <c r="Q191" s="5"/>
-      <c r="R191" s="5"/>
-      <c r="S191" s="5"/>
-      <c r="T191" s="5"/>
-      <c r="U191" s="5" t="s">
+      <c r="P191" s="2"/>
+      <c r="Q191" s="2"/>
+      <c r="R191" s="2"/>
+      <c r="S191" s="2"/>
+      <c r="T191" s="2"/>
+      <c r="U191" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="V191" s="5"/>
+      <c r="V191" s="2"/>
     </row>
     <row r="192" spans="1:22">
       <c r="A192" s="5" t="s">
@@ -11364,9 +11176,7 @@
         <v>258</v>
       </c>
       <c r="K192" s="5"/>
-      <c r="L192" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L192" s="4"/>
       <c r="M192" s="5" t="s">
         <v>57</v>
       </c>
@@ -11420,9 +11230,7 @@
       <c r="K193" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="L193" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L193" s="4"/>
       <c r="M193" s="5" t="s">
         <v>57</v>
       </c>
@@ -11449,44 +11257,42 @@
       </c>
     </row>
     <row r="194" spans="1:22">
-      <c r="A194" s="5" t="s">
+      <c r="A194" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="B194" s="5" t="s">
+      <c r="B194" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C194" s="5"/>
-      <c r="D194" s="5" t="s">
+      <c r="C194" s="2"/>
+      <c r="D194" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E194" s="5"/>
-      <c r="F194" s="5"/>
-      <c r="G194" s="5"/>
-      <c r="H194" s="5"/>
-      <c r="I194" s="5"/>
-      <c r="J194" s="5" t="s">
+      <c r="E194" s="2"/>
+      <c r="F194" s="2"/>
+      <c r="G194" s="2"/>
+      <c r="H194" s="2"/>
+      <c r="I194" s="2"/>
+      <c r="J194" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="K194" s="5"/>
-      <c r="L194" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="M194" s="5" t="s">
+      <c r="K194" s="2"/>
+      <c r="L194" s="4"/>
+      <c r="M194" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="N194" s="5"/>
-      <c r="O194" s="5" t="s">
+      <c r="N194" s="2"/>
+      <c r="O194" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="P194" s="5"/>
-      <c r="Q194" s="5"/>
-      <c r="R194" s="5"/>
-      <c r="S194" s="5"/>
-      <c r="T194" s="5"/>
-      <c r="U194" s="5" t="s">
+      <c r="P194" s="2"/>
+      <c r="Q194" s="2"/>
+      <c r="R194" s="2"/>
+      <c r="S194" s="2"/>
+      <c r="T194" s="2"/>
+      <c r="U194" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="V194" s="5"/>
+      <c r="V194" s="2"/>
     </row>
     <row r="195" spans="1:22">
       <c r="A195" s="5" t="s">
@@ -11512,9 +11318,7 @@
         <v>258</v>
       </c>
       <c r="K195" s="5"/>
-      <c r="L195" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L195" s="4"/>
       <c r="M195" s="5" t="s">
         <v>58</v>
       </c>
@@ -11560,9 +11364,7 @@
         <v>258</v>
       </c>
       <c r="K196" s="5"/>
-      <c r="L196" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="L196" s="4"/>
       <c r="M196" s="5" t="s">
         <v>58</v>
       </c>

--- a/data/output/FV2310_FV2304/INVOIC/31011.xlsx
+++ b/data/output/FV2310_FV2304/INVOIC/31011.xlsx
@@ -1650,7 +1650,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1679,11 +1679,17 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2121,7 +2127,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2457,7 +2463,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2633,7 +2639,7 @@
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="4"/>
-      <c r="M13" s="2" t="s">
+      <c r="M13" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N13" s="2"/>
@@ -2821,7 +2827,7 @@
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="4"/>
-      <c r="M17" s="2" t="s">
+      <c r="M17" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N17" s="2"/>
@@ -3011,7 +3017,7 @@
         <v>297</v>
       </c>
       <c r="L21" s="4"/>
-      <c r="M21" s="2" t="s">
+      <c r="M21" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N21" s="2"/>
@@ -3199,7 +3205,7 @@
         <v>297</v>
       </c>
       <c r="L25" s="4"/>
-      <c r="M25" s="2" t="s">
+      <c r="M25" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N25" s="2"/>
@@ -3387,7 +3393,7 @@
         <v>298</v>
       </c>
       <c r="L29" s="4"/>
-      <c r="M29" s="2" t="s">
+      <c r="M29" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N29" s="2"/>
@@ -3577,7 +3583,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N33" s="2"/>
@@ -3771,7 +3777,7 @@
         <v>300</v>
       </c>
       <c r="L37" s="4"/>
-      <c r="M37" s="2" t="s">
+      <c r="M37" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N37" s="2"/>
@@ -3903,7 +3909,7 @@
       </c>
       <c r="K40" s="2"/>
       <c r="L40" s="4"/>
-      <c r="M40" s="2" t="s">
+      <c r="M40" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N40" s="2" t="s">
@@ -4093,7 +4099,7 @@
         <v>301</v>
       </c>
       <c r="L44" s="4"/>
-      <c r="M44" s="2" t="s">
+      <c r="M44" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N44" s="2" t="s">
@@ -4285,7 +4291,7 @@
       </c>
       <c r="K48" s="2"/>
       <c r="L48" s="4"/>
-      <c r="M48" s="2" t="s">
+      <c r="M48" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N48" s="2" t="s">
@@ -4489,7 +4495,7 @@
         <v>298</v>
       </c>
       <c r="L52" s="4"/>
-      <c r="M52" s="2" t="s">
+      <c r="M52" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N52" s="2" t="s">
@@ -4679,7 +4685,7 @@
       </c>
       <c r="K56" s="2"/>
       <c r="L56" s="4"/>
-      <c r="M56" s="2" t="s">
+      <c r="M56" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N56" s="2" t="s">
@@ -5389,7 +5395,7 @@
       </c>
       <c r="K70" s="2"/>
       <c r="L70" s="4"/>
-      <c r="M70" s="2" t="s">
+      <c r="M70" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N70" s="2" t="s">
@@ -5631,7 +5637,7 @@
       </c>
       <c r="K75" s="2"/>
       <c r="L75" s="4"/>
-      <c r="M75" s="2" t="s">
+      <c r="M75" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N75" s="2" t="s">
@@ -5809,7 +5815,7 @@
       </c>
       <c r="K79" s="2"/>
       <c r="L79" s="4"/>
-      <c r="M79" s="2" t="s">
+      <c r="M79" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N79" s="2" t="s">
@@ -6169,7 +6175,7 @@
       </c>
       <c r="K86" s="2"/>
       <c r="L86" s="4"/>
-      <c r="M86" s="2" t="s">
+      <c r="M86" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N86" s="2" t="s">
@@ -6877,7 +6883,7 @@
         <v>307</v>
       </c>
       <c r="L100" s="4"/>
-      <c r="M100" s="2" t="s">
+      <c r="M100" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N100" s="2" t="s">
@@ -7107,20 +7113,20 @@
       <c r="B105" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C105" s="10" t="s">
+      <c r="C105" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D105" s="10"/>
-      <c r="E105" s="10"/>
-      <c r="F105" s="10"/>
-      <c r="G105" s="10"/>
-      <c r="H105" s="10"/>
-      <c r="I105" s="10"/>
-      <c r="J105" s="10" t="s">
+      <c r="D105" s="11"/>
+      <c r="E105" s="11"/>
+      <c r="F105" s="11"/>
+      <c r="G105" s="11"/>
+      <c r="H105" s="11"/>
+      <c r="I105" s="11"/>
+      <c r="J105" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="K105" s="10"/>
-      <c r="L105" s="11" t="s">
+      <c r="K105" s="11"/>
+      <c r="L105" s="12" t="s">
         <v>318</v>
       </c>
       <c r="M105" s="5"/>
@@ -7138,25 +7144,25 @@
       <c r="A106" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="B106" s="10" t="s">
+      <c r="B106" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C106" s="10" t="s">
+      <c r="C106" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D106" s="10" t="s">
+      <c r="D106" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E106" s="10"/>
-      <c r="F106" s="10"/>
-      <c r="G106" s="10"/>
-      <c r="H106" s="10"/>
-      <c r="I106" s="10"/>
-      <c r="J106" s="10" t="s">
+      <c r="E106" s="11"/>
+      <c r="F106" s="11"/>
+      <c r="G106" s="11"/>
+      <c r="H106" s="11"/>
+      <c r="I106" s="11"/>
+      <c r="J106" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="K106" s="10"/>
-      <c r="L106" s="11" t="s">
+      <c r="K106" s="11"/>
+      <c r="L106" s="12" t="s">
         <v>318</v>
       </c>
       <c r="M106" s="5"/>
@@ -7174,27 +7180,27 @@
       <c r="A107" s="5" t="s">
         <v>423</v>
       </c>
-      <c r="B107" s="10" t="s">
+      <c r="B107" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C107" s="10" t="s">
+      <c r="C107" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D107" s="10" t="s">
+      <c r="D107" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E107" s="10" t="s">
+      <c r="E107" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="F107" s="10"/>
-      <c r="G107" s="10"/>
-      <c r="H107" s="10"/>
-      <c r="I107" s="10"/>
-      <c r="J107" s="10" t="s">
+      <c r="F107" s="11"/>
+      <c r="G107" s="11"/>
+      <c r="H107" s="11"/>
+      <c r="I107" s="11"/>
+      <c r="J107" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="K107" s="10"/>
-      <c r="L107" s="11" t="s">
+      <c r="K107" s="11"/>
+      <c r="L107" s="12" t="s">
         <v>318</v>
       </c>
       <c r="M107" s="5"/>
@@ -7212,29 +7218,29 @@
       <c r="A108" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="B108" s="10" t="s">
+      <c r="B108" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C108" s="10" t="s">
+      <c r="C108" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D108" s="10" t="s">
+      <c r="D108" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E108" s="10" t="s">
+      <c r="E108" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="F108" s="10"/>
-      <c r="G108" s="10"/>
-      <c r="H108" s="10"/>
-      <c r="I108" s="10" t="s">
+      <c r="F108" s="11"/>
+      <c r="G108" s="11"/>
+      <c r="H108" s="11"/>
+      <c r="I108" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="J108" s="10" t="s">
+      <c r="J108" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="K108" s="10"/>
-      <c r="L108" s="11" t="s">
+      <c r="K108" s="11"/>
+      <c r="L108" s="12" t="s">
         <v>318</v>
       </c>
       <c r="M108" s="5"/>
@@ -7252,31 +7258,31 @@
       <c r="A109" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="B109" s="10" t="s">
+      <c r="B109" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C109" s="10" t="s">
+      <c r="C109" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D109" s="10" t="s">
+      <c r="D109" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E109" s="10" t="s">
+      <c r="E109" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="F109" s="10"/>
-      <c r="G109" s="10"/>
-      <c r="H109" s="10"/>
-      <c r="I109" s="10" t="s">
+      <c r="F109" s="11"/>
+      <c r="G109" s="11"/>
+      <c r="H109" s="11"/>
+      <c r="I109" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="J109" s="10" t="s">
+      <c r="J109" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="K109" s="10" t="s">
+      <c r="K109" s="11" t="s">
         <v>308</v>
       </c>
-      <c r="L109" s="11" t="s">
+      <c r="L109" s="12" t="s">
         <v>318</v>
       </c>
       <c r="M109" s="5"/>
@@ -7294,29 +7300,29 @@
       <c r="A110" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="B110" s="10" t="s">
+      <c r="B110" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C110" s="10" t="s">
+      <c r="C110" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D110" s="10" t="s">
+      <c r="D110" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E110" s="10" t="s">
+      <c r="E110" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="F110" s="10"/>
-      <c r="G110" s="10"/>
-      <c r="H110" s="10"/>
-      <c r="I110" s="10" t="s">
+      <c r="F110" s="11"/>
+      <c r="G110" s="11"/>
+      <c r="H110" s="11"/>
+      <c r="I110" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="J110" s="10" t="s">
+      <c r="J110" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="K110" s="10"/>
-      <c r="L110" s="11" t="s">
+      <c r="K110" s="11"/>
+      <c r="L110" s="12" t="s">
         <v>318</v>
       </c>
       <c r="M110" s="5"/>
@@ -7334,29 +7340,29 @@
       <c r="A111" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="B111" s="10" t="s">
+      <c r="B111" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C111" s="10" t="s">
+      <c r="C111" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D111" s="10" t="s">
+      <c r="D111" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E111" s="10" t="s">
+      <c r="E111" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="F111" s="10"/>
-      <c r="G111" s="10"/>
-      <c r="H111" s="10"/>
-      <c r="I111" s="10" t="s">
+      <c r="F111" s="11"/>
+      <c r="G111" s="11"/>
+      <c r="H111" s="11"/>
+      <c r="I111" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="J111" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="K111" s="10"/>
-      <c r="L111" s="11" t="s">
+      <c r="J111" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="K111" s="11"/>
+      <c r="L111" s="12" t="s">
         <v>318</v>
       </c>
       <c r="M111" s="5"/>
@@ -7374,29 +7380,29 @@
       <c r="A112" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="B112" s="10" t="s">
+      <c r="B112" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C112" s="10" t="s">
+      <c r="C112" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D112" s="10" t="s">
+      <c r="D112" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E112" s="10" t="s">
+      <c r="E112" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="F112" s="10"/>
-      <c r="G112" s="10"/>
-      <c r="H112" s="10"/>
-      <c r="I112" s="10" t="s">
+      <c r="F112" s="11"/>
+      <c r="G112" s="11"/>
+      <c r="H112" s="11"/>
+      <c r="I112" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="J112" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="K112" s="10"/>
-      <c r="L112" s="11" t="s">
+      <c r="J112" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="K112" s="11"/>
+      <c r="L112" s="12" t="s">
         <v>318</v>
       </c>
       <c r="M112" s="5"/>
@@ -7427,7 +7433,7 @@
       <c r="L113" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="M113" s="9" t="s">
+      <c r="M113" s="13" t="s">
         <v>319</v>
       </c>
       <c r="N113" s="9" t="s">
@@ -7743,7 +7749,7 @@
       </c>
       <c r="K121" s="2"/>
       <c r="L121" s="4"/>
-      <c r="M121" s="2" t="s">
+      <c r="M121" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N121" s="2" t="s">
@@ -7885,7 +7891,7 @@
       </c>
       <c r="K124" s="2"/>
       <c r="L124" s="4"/>
-      <c r="M124" s="2" t="s">
+      <c r="M124" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N124" s="2" t="s">
@@ -8127,7 +8133,7 @@
       </c>
       <c r="K129" s="2"/>
       <c r="L129" s="4"/>
-      <c r="M129" s="2" t="s">
+      <c r="M129" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N129" s="2" t="s">
@@ -8255,7 +8261,7 @@
       </c>
       <c r="K132" s="2"/>
       <c r="L132" s="4"/>
-      <c r="M132" s="2" t="s">
+      <c r="M132" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N132" s="2" t="s">
@@ -8453,7 +8459,7 @@
       </c>
       <c r="K136" s="2"/>
       <c r="L136" s="4"/>
-      <c r="M136" s="2" t="s">
+      <c r="M136" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N136" s="2" t="s">
@@ -8697,7 +8703,7 @@
       </c>
       <c r="K141" s="2"/>
       <c r="L141" s="4"/>
-      <c r="M141" s="2" t="s">
+      <c r="M141" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N141" s="2" t="s">
@@ -8957,7 +8963,7 @@
         <v>297</v>
       </c>
       <c r="L146" s="4"/>
-      <c r="M146" s="2" t="s">
+      <c r="M146" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N146" s="2" t="s">
@@ -9163,7 +9169,7 @@
         <v>297</v>
       </c>
       <c r="L150" s="4"/>
-      <c r="M150" s="2" t="s">
+      <c r="M150" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N150" s="2" t="s">
@@ -9369,7 +9375,7 @@
         <v>298</v>
       </c>
       <c r="L154" s="4"/>
-      <c r="M154" s="2" t="s">
+      <c r="M154" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N154" s="2" t="s">
@@ -9573,7 +9579,7 @@
       </c>
       <c r="K158" s="2"/>
       <c r="L158" s="4"/>
-      <c r="M158" s="2" t="s">
+      <c r="M158" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N158" s="2" t="s">
@@ -9761,7 +9767,7 @@
       </c>
       <c r="K162" s="2"/>
       <c r="L162" s="4"/>
-      <c r="M162" s="2" t="s">
+      <c r="M162" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N162" s="2" t="s">
@@ -9949,7 +9955,7 @@
       </c>
       <c r="K166" s="2"/>
       <c r="L166" s="4"/>
-      <c r="M166" s="2" t="s">
+      <c r="M166" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N166" s="2" t="s">
@@ -10233,7 +10239,7 @@
       </c>
       <c r="K172" s="2"/>
       <c r="L172" s="4"/>
-      <c r="M172" s="2" t="s">
+      <c r="M172" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N172" s="2"/>
@@ -10317,7 +10323,7 @@
       </c>
       <c r="K174" s="2"/>
       <c r="L174" s="4"/>
-      <c r="M174" s="2" t="s">
+      <c r="M174" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N174" s="2" t="s">
@@ -10505,7 +10511,7 @@
       </c>
       <c r="K178" s="2"/>
       <c r="L178" s="4"/>
-      <c r="M178" s="2" t="s">
+      <c r="M178" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N178" s="2" t="s">
@@ -10693,7 +10699,7 @@
       </c>
       <c r="K182" s="2"/>
       <c r="L182" s="4"/>
-      <c r="M182" s="2" t="s">
+      <c r="M182" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N182" s="2" t="s">
@@ -10979,7 +10985,7 @@
       </c>
       <c r="K188" s="2"/>
       <c r="L188" s="4"/>
-      <c r="M188" s="2" t="s">
+      <c r="M188" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N188" s="2" t="s">
@@ -11129,7 +11135,7 @@
       </c>
       <c r="K191" s="2"/>
       <c r="L191" s="4"/>
-      <c r="M191" s="2" t="s">
+      <c r="M191" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N191" s="2" t="s">
@@ -11277,7 +11283,7 @@
       </c>
       <c r="K194" s="2"/>
       <c r="L194" s="4"/>
-      <c r="M194" s="2" t="s">
+      <c r="M194" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N194" s="2"/>
